--- a/data/bd.xlsx
+++ b/data/bd.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bd!$A$1:$G$100</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -848,7 +851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -900,7 +905,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -969,7 +974,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -992,7 +997,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1061,7 +1066,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1107,7 +1112,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1130,7 +1135,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1153,7 +1158,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1176,7 +1181,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1291,7 +1296,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1314,7 +1319,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1383,7 +1388,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1406,7 +1411,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1498,7 +1503,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1636,7 +1641,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1682,7 +1687,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1728,7 +1733,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1797,7 +1802,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1866,7 +1871,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -1935,7 +1940,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -1981,7 +1986,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2142,7 +2147,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -2234,7 +2239,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -2257,7 +2262,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -2280,7 +2285,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -2326,7 +2331,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -2349,7 +2354,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -2395,7 +2400,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -2441,7 +2446,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -2464,7 +2469,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -2510,7 +2515,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -2533,7 +2538,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -2579,7 +2584,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -2763,7 +2768,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -2786,7 +2791,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -2878,7 +2883,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -2924,7 +2929,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -2993,7 +2998,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -3016,7 +3021,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -3039,7 +3044,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -3085,7 +3090,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -3131,7 +3136,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B100">
         <v>1</v>
